--- a/PolicyEffectiveness/0-DayLag_District of ColumbiaPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_District of ColumbiaPolicy.xlsx
@@ -2653,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2709,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2765,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2821,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2877,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2933,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2989,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3045,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3101,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3157,13 +3157,13 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3213,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3269,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3325,13 +3325,13 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3381,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3437,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3493,13 +3493,13 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3549,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3605,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3661,13 +3661,13 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3717,13 +3717,13 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3829,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3885,13 +3885,13 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3941,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3997,13 +3997,13 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4053,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4109,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4165,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4221,13 +4221,13 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -4277,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4333,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -4389,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4445,13 +4445,13 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4501,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4557,13 +4557,13 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4613,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4669,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4725,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4781,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4837,13 +4837,13 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4893,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4949,13 +4949,13 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -5005,13 +5005,13 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -5061,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -5117,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -5173,13 +5173,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5229,13 +5229,13 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5285,13 +5285,13 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5341,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -5397,13 +5397,13 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -5453,13 +5453,13 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -5509,13 +5509,13 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -5565,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -5621,13 +5621,13 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -5677,13 +5677,13 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -5733,13 +5733,13 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -5789,13 +5789,13 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -5845,13 +5845,13 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -5901,13 +5901,13 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -5957,13 +5957,13 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -6013,13 +6013,13 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -6069,13 +6069,13 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -6125,13 +6125,13 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -6181,13 +6181,13 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -6237,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -6293,13 +6293,13 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -6349,13 +6349,13 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -6405,13 +6405,13 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -6461,13 +6461,13 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -6517,13 +6517,13 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -6573,13 +6573,13 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -6629,13 +6629,13 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -6685,13 +6685,13 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -6741,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -6797,13 +6797,13 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -6853,13 +6853,13 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -6909,13 +6909,13 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -6965,13 +6965,13 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -7021,13 +7021,13 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -7077,13 +7077,13 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -7133,13 +7133,13 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -7189,13 +7189,13 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -7245,13 +7245,13 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -7301,13 +7301,13 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -7357,13 +7357,13 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -7413,13 +7413,13 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -7469,13 +7469,13 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -7525,13 +7525,13 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -7581,13 +7581,13 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -7637,13 +7637,13 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -7693,13 +7693,13 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -7749,13 +7749,13 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -7805,13 +7805,13 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -7861,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -7917,13 +7917,13 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -7973,13 +7973,13 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -8029,13 +8029,13 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -8141,13 +8141,13 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -8197,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -8253,13 +8253,13 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -8365,13 +8365,13 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -8421,13 +8421,13 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -8477,13 +8477,13 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -8533,13 +8533,13 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -8589,13 +8589,13 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -8645,13 +8645,13 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
